--- a/AppV2/App_Data/reportes/consultor3/ReporteGeneralGastoFuncionamiento.xlsx
+++ b/AppV2/App_Data/reportes/consultor3/ReporteGeneralGastoFuncionamiento.xlsx
@@ -41,7 +41,7 @@
     <x:t>DETALLE DE GASTOS DE FUNCIONAMIENTO</x:t>
   </x:si>
   <x:si>
-    <x:t>Presupuesto 2017 - I</x:t>
+    <x:t>Presupuesto 2017 - II</x:t>
   </x:si>
   <x:si>
     <x:t>FORMULACION PRESUPUESTAL - 2017</x:t>
@@ -50,19 +50,25 @@
     <x:t>1.- Materiales y suministros</x:t>
   </x:si>
   <x:si>
-    <x:t>TELEFONO CELULAR NEXTEL I 30S</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MACHO P/R TUBO NPT DE 1.1/2  X 11.5 HILOS</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ABRAZADERA FIERRO GALV. A TORNILLO SIN FIN DE   5/8"</x:t>
+    <x:t>LAPIZ DE TEMPERATURA 120 GC</x:t>
+  </x:si>
+  <x:si>
+    <x:t>LAPICERO TERMICO DE 500 C</x:t>
+  </x:si>
+  <x:si>
+    <x:t>FILLER DE 0.0040 A 0.009 25 HOJAS X 4</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MACHO P/R PERNO HSS UNC  3/8   X 16  HILOS</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CONECTOR PLUG C/TORNILLO MOUSER,N-587-020-301</x:t>
+  </x:si>
+  <x:si>
+    <x:t>PANTALON  CASIMIR COLOR NEGRO</x:t>
   </x:si>
   <x:si>
     <x:t>2.- Servicios</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MANTENIMIENTO DE VEHICULOS GENERALES</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -537,7 +543,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="D12" t="n">
-        <x:v>60.63</x:v>
+        <x:v>62.52</x:v>
       </x:c>
     </x:row>
     <x:row r="13">
@@ -548,7 +554,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="D13" t="n">
-        <x:v>655.83</x:v>
+        <x:v>39.9</x:v>
       </x:c>
     </x:row>
     <x:row r="14">
@@ -556,26 +562,48 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="C14" t="n">
-        <x:v>100</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="D14" t="n">
-        <x:v>28</x:v>
+        <x:v>58.98</x:v>
       </x:c>
     </x:row>
     <x:row r="15">
       <x:c r="B15" t="s">
         <x:v>14</x:v>
       </x:c>
+      <x:c r="C15" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="D15" t="n">
+        <x:v>169.5</x:v>
+      </x:c>
     </x:row>
     <x:row r="16">
       <x:c r="B16" t="s">
         <x:v>15</x:v>
       </x:c>
       <x:c r="C16" t="n">
-        <x:v>5000</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="D16" t="n">
-        <x:v>5000</x:v>
+        <x:v>121.25</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="17">
+      <x:c r="B17" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="C17" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="D17" t="n">
+        <x:v>90</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="18">
+      <x:c r="B18" t="s">
+        <x:v>17</x:v>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/AppV2/App_Data/reportes/consultor3/ReporteGeneralGastoFuncionamiento.xlsx
+++ b/AppV2/App_Data/reportes/consultor3/ReporteGeneralGastoFuncionamiento.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <x:si>
     <x:t>ORGANISMOS DIRECCION EJECUTIVA</x:t>
   </x:si>
@@ -26,9 +26,6 @@
     <x:t>PRESUPUESTO  DE  INVERSIONES 2017 -    FORMULACION 2017</x:t>
   </x:si>
   <x:si>
-    <x:t>(En Nuevos Soles)</x:t>
-  </x:si>
-  <x:si>
     <x:t>RUBRO</x:t>
   </x:si>
   <x:si>
@@ -41,34 +38,133 @@
     <x:t>DETALLE DE GASTOS DE FUNCIONAMIENTO</x:t>
   </x:si>
   <x:si>
-    <x:t>Presupuesto 2017 - II</x:t>
-  </x:si>
-  <x:si>
-    <x:t>FORMULACION PRESUPUESTAL - 2017</x:t>
+    <x:t>(En Soles)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CENTRO COSTO</x:t>
+  </x:si>
+  <x:si>
+    <x:t>P/U</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Presup 7</x:t>
+  </x:si>
+  <x:si>
+    <x:t>FORMULACION PRESUPUESTAL - 2019</x:t>
   </x:si>
   <x:si>
     <x:t>1.- Materiales y suministros</x:t>
   </x:si>
   <x:si>
-    <x:t>LAPIZ DE TEMPERATURA 120 GC</x:t>
-  </x:si>
-  <x:si>
-    <x:t>LAPICERO TERMICO DE 500 C</x:t>
-  </x:si>
-  <x:si>
-    <x:t>FILLER DE 0.0040 A 0.009 25 HOJAS X 4</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MACHO P/R PERNO HSS UNC  3/8   X 16  HILOS</x:t>
-  </x:si>
-  <x:si>
-    <x:t>CONECTOR PLUG C/TORNILLO MOUSER,N-587-020-301</x:t>
-  </x:si>
-  <x:si>
-    <x:t>PANTALON  CASIMIR COLOR NEGRO</x:t>
+    <x:t>0306090202 - MULTIMETRO DIGITAL DE 0.001 NF A 50 MF 100 KHZ 1 SEG. A 99 MIN 1000 REGISTROS</x:t>
+  </x:si>
+  <x:si>
+    <x:t>400716</x:t>
+  </x:si>
+  <x:si>
+    <x:t>0566060045 - FILLER DE 0.038 A 0.508  12 HOJAS X 12</x:t>
+  </x:si>
+  <x:si>
+    <x:t>400145</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1720160408 - PEGAMENTO SOLDIMIX EN CHISQUETE 1O MINUTOS</x:t>
+  </x:si>
+  <x:si>
+    <x:t>400717</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2502100700 - BANDEJA PORTA PAPELES ACRILICO DE DOS PISOS</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2503020600 - BASE DE PLASTICO P/CINTA SCOTCH</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2503167100 - PORTA CLIPS IMANTADO</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2504030252 - CUADERNO EMPASTADO CUADRICULADO 200 HOJAS D/56 GR. A-5</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Varios</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2505010153 - ARCHIVADOR DE PALANCA T/OFICIO</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2505010176 - ARCHIVADOR DE PALANCA T/OFICIO PLASTIFICADO</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2506020100 - VINIFAN TAMANO OFICIO</x:t>
+  </x:si>
+  <x:si>
+    <x:t>400715</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2507080098 - PAPEL BOND BLANCO 80 GR A-4 P/FOTOCOPIADORA</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2509121207 - KIT DE LIMPIEZA P/MONITORES LCD</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2509190171 - SELLO AUTOMATICO CON IMPRESION TRODAT C/ALMOHADILLA</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2700060204 - MEMORIA USB  8 GB</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2700070208 - CD ROOM 700 MB CON ESTUCHE</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2710014640 - DISCO DURO SEGATE 1 TB 7200 RPM SATA 3</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2710015009 - MOUSE TRES BOTONES CONEXION USB/PS2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2710019508 - ADAPTADOR DE DISCO IDE SATA A USB EXTERNO</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3015500959 - CABLE TELEFONICO DE 2 X 18</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3112286315 - CAJA MODULAR JACKS DE 02 PINES</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3302280149 - LAMPARA FLUORESCENTE RECTO 36 W T8,MOD.TLD</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3304280088 - PILA DE 1.5 V  TAMANO AA</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3518133628 - PATCH CORD FIBRA MULTIMODO 50/125 MTRJ-SC</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Total Materiales</x:t>
+  </x:si>
+  <x:si>
+    <x:t>496.00</x:t>
+  </x:si>
+  <x:si>
+    <x:t>15648.30</x:t>
   </x:si>
   <x:si>
     <x:t>2.- Servicios</x:t>
+  </x:si>
+  <x:si>
+    <x:t>SR50120001 - TELEFONIA FIJA</x:t>
+  </x:si>
+  <x:si>
+    <x:t>SR50140001 - TELEFONIA CELULAR </x:t>
+  </x:si>
+  <x:si>
+    <x:t>SR50150001 - INTERNET</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Total Servicios</x:t>
+  </x:si>
+  <x:si>
+    <x:t>772808.00</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -100,7 +196,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -132,15 +228,38 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -151,6 +270,15 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -454,170 +582,594 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x14ac">
-  <x:dimension ref="B2:D10"/>
+  <x:dimension ref="B2:F10"/>
   <x:sheetViews>
     <x:sheetView tabSelected="1" workbookViewId="0">
-      <x:selection activeCell="B17" sqref="B17"/>
+      <x:selection activeCell="B9" sqref="B9:B10"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <x:cols>
     <x:col min="2" max="2" width="62.85546875" customWidth="1"/>
-    <x:col min="3" max="3" width="11.42578125" customWidth="1"/>
+    <x:col min="3" max="3" width="19.28515625" customWidth="1"/>
+    <x:col min="4" max="4" width="16.7109375" customWidth="1"/>
+    <x:col min="5" max="5" width="11.42578125" customWidth="1"/>
   </x:cols>
   <x:sheetData>
-    <x:row r="2" spans="2:4" x14ac:dyDescent="0.25">
-      <x:c r="B2" s="4" t="s">
+    <x:row r="2" spans="2:6" x14ac:dyDescent="0.25">
+      <x:c r="B2" s="3" t="s">
         <x:v>0</x:v>
       </x:c>
-      <x:c r="C2" s="4"/>
-      <x:c r="D2" s="4"/>
-    </x:row>
-    <x:row r="3" spans="2:4" x14ac:dyDescent="0.25">
-      <x:c r="B3" s="4" t="s">
+      <x:c r="C2" s="3"/>
+      <x:c r="D2" s="3"/>
+      <x:c r="E2" s="3"/>
+      <x:c r="F2" s="3"/>
+    </x:row>
+    <x:row r="3" spans="2:6" x14ac:dyDescent="0.25">
+      <x:c r="B3" s="3" t="s">
         <x:v>1</x:v>
       </x:c>
       <x:c r="B3 " t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="C3" s="3"/>
+      <x:c r="D3" s="3"/>
+      <x:c r="E3" s="3"/>
+      <x:c r="F3" s="3"/>
+    </x:row>
+    <x:row r="4" spans="2:6" x14ac:dyDescent="0.25">
+      <x:c r="B4" s="3" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="C4" s="3"/>
+      <x:c r="D4" s="3"/>
+      <x:c r="E4" s="3"/>
+      <x:c r="F4" s="3"/>
+    </x:row>
+    <x:row r="5" spans="2:6" x14ac:dyDescent="0.25">
+      <x:c r="B5" s="4"/>
+      <x:c r="C5" s="4"/>
+      <x:c r="D5" s="4"/>
+      <x:c r="E5" s="4"/>
+      <x:c r="F5" s="4"/>
+    </x:row>
+    <x:row r="6" spans="2:6" x14ac:dyDescent="0.25">
+      <x:c r="B6" s="2" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="C6" s="2"/>
+      <x:c r="D6" s="2"/>
+      <x:c r="E6" s="2"/>
+      <x:c r="F6" s="2"/>
+    </x:row>
+    <x:row r="7" spans="2:6" x14ac:dyDescent="0.25">
+      <x:c r="B7" s="2" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="C7" s="2"/>
+      <x:c r="D7" s="2"/>
+      <x:c r="E7" s="2"/>
+      <x:c r="F7" s="2"/>
+    </x:row>
+    <x:row r="8" spans="2:6" x14ac:dyDescent="0.25">
+      <x:c r="B8" s="5"/>
+      <x:c r="C8" s="5"/>
+      <x:c r="D8" s="5"/>
+      <x:c r="E8" s="5"/>
+      <x:c r="F8" s="5"/>
+    </x:row>
+    <x:row r="9" spans="2:6" x14ac:dyDescent="0.25">
+      <x:c r="B9" s="1" t="s">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="C9" s="1" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="D9" s="1" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="E9" s="6" t="s">
         <x:v>9</x:v>
       </x:c>
-      <x:c r="C3" s="4"/>
-      <x:c r="D3" s="4"/>
-    </x:row>
-    <x:row r="4" spans="2:4" x14ac:dyDescent="0.25">
-      <x:c r="B4" s="4" t="s">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="C4" s="4"/>
-      <x:c r="D4" s="4"/>
-    </x:row>
-    <x:row r="5" spans="2:4" x14ac:dyDescent="0.25">
-      <x:c r="B5" s="5"/>
-      <x:c r="C5" s="5"/>
-      <x:c r="D5" s="5"/>
-    </x:row>
-    <x:row r="6" spans="2:4" x14ac:dyDescent="0.25">
-      <x:c r="B6" s="3" t="s">
-        <x:v>8</x:v>
-      </x:c>
-      <x:c r="C6" s="3"/>
-      <x:c r="D6" s="3"/>
-    </x:row>
-    <x:row r="7" spans="2:4" x14ac:dyDescent="0.25">
-      <x:c r="B7" s="3" t="s">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="C7" s="3"/>
-      <x:c r="D7" s="3"/>
-    </x:row>
-    <x:row r="8" spans="2:4" x14ac:dyDescent="0.25">
-      <x:c r="B8" s="1"/>
-      <x:c r="C8" s="1"/>
-      <x:c r="D8" s="1"/>
-    </x:row>
-    <x:row r="9" spans="2:4" x14ac:dyDescent="0.25">
-      <x:c r="B9" s="2" t="s">
-        <x:v>4</x:v>
-      </x:c>
-      <x:c r="C9" s="2" t="s">
+      <x:c r="F9" s="1" t="s">
         <x:v>5</x:v>
       </x:c>
-      <x:c r="D9" s="2" t="s">
-        <x:v>6</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="10" spans="2:4" x14ac:dyDescent="0.25">
-      <x:c r="B10" s="2"/>
-      <x:c r="C10" s="2"/>
-      <x:c r="D10" s="2"/>
+    </x:row>
+    <x:row r="10" spans="2:6" x14ac:dyDescent="0.25">
+      <x:c r="B10" s="1"/>
+      <x:c r="C10" s="1"/>
+      <x:c r="D10" s="1"/>
+      <x:c r="E10" s="7"/>
+      <x:c r="F10" s="1"/>
     </x:row>
     <x:row r="11">
       <x:c r="B11" t="s">
-        <x:v>10</x:v>
+        <x:v>12</x:v>
       </x:c>
     </x:row>
     <x:row r="12">
       <x:c r="B12" t="s">
-        <x:v>11</x:v>
-      </x:c>
-      <x:c r="C12" t="n">
-        <x:v>1</x:v>
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="C12" t="s">
+        <x:v>14</x:v>
       </x:c>
       <x:c r="D12" t="n">
-        <x:v>62.52</x:v>
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="E12" t="n">
+        <x:v>1534.93</x:v>
+      </x:c>
+      <x:c r="F12" t="n">
+        <x:v>6139.72</x:v>
       </x:c>
     </x:row>
     <x:row r="13">
       <x:c r="B13" t="s">
-        <x:v>12</x:v>
-      </x:c>
-      <x:c r="C13" t="n">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="C13" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="D13" t="n">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="D13" t="n">
-        <x:v>39.9</x:v>
+      <x:c r="E13" t="n">
+        <x:v>204.01</x:v>
+      </x:c>
+      <x:c r="F13" t="n">
+        <x:v>204.01</x:v>
       </x:c>
     </x:row>
     <x:row r="14">
       <x:c r="B14" t="s">
-        <x:v>13</x:v>
-      </x:c>
-      <x:c r="C14" t="n">
-        <x:v>1</x:v>
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="C14" t="s">
+        <x:v>18</x:v>
       </x:c>
       <x:c r="D14" t="n">
-        <x:v>58.98</x:v>
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="E14" t="n">
+        <x:v>8.19</x:v>
+      </x:c>
+      <x:c r="F14" t="n">
+        <x:v>98.28</x:v>
       </x:c>
     </x:row>
     <x:row r="15">
       <x:c r="B15" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="C15" t="s">
         <x:v>14</x:v>
       </x:c>
-      <x:c r="C15" t="n">
-        <x:v>1</x:v>
-      </x:c>
       <x:c r="D15" t="n">
-        <x:v>169.5</x:v>
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="E15" t="n">
+        <x:v>15.09</x:v>
+      </x:c>
+      <x:c r="F15" t="n">
+        <x:v>30.18</x:v>
       </x:c>
     </x:row>
     <x:row r="16">
       <x:c r="B16" t="s">
-        <x:v>15</x:v>
-      </x:c>
-      <x:c r="C16" t="n">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="C16" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="D16" t="n">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="D16" t="n">
-        <x:v>121.25</x:v>
+      <x:c r="E16" t="n">
+        <x:v>6.44</x:v>
+      </x:c>
+      <x:c r="F16" t="n">
+        <x:v>6.44</x:v>
       </x:c>
     </x:row>
     <x:row r="17">
       <x:c r="B17" t="s">
-        <x:v>16</x:v>
-      </x:c>
-      <x:c r="C17" t="n">
-        <x:v>1</x:v>
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="C17" t="s">
+        <x:v>18</x:v>
       </x:c>
       <x:c r="D17" t="n">
-        <x:v>90</x:v>
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="E17" t="n">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="F17" t="n">
+        <x:v>4</x:v>
       </x:c>
     </x:row>
     <x:row r="18">
       <x:c r="B18" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="C18" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="D18" t="n">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="E18" t="n">
+        <x:v>Varios</x:v>
+      </x:c>
+      <x:c r="F18" t="n">
+        <x:v>13.08</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="19">
+      <x:c r="B19" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="C19" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="D19" t="n">
+        <x:v>44</x:v>
+      </x:c>
+      <x:c r="E19" t="n">
+        <x:v>Varios</x:v>
+      </x:c>
+      <x:c r="F19" t="n">
+        <x:v>116.16</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="20">
+      <x:c r="B20" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="C20" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="D20" t="n">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="E20" t="n">
+        <x:v>2.76</x:v>
+      </x:c>
+      <x:c r="F20" t="n">
+        <x:v>16.56</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="21">
+      <x:c r="B21" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="C21" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="D21" t="n">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="E21" t="n">
+        <x:v>6.34</x:v>
+      </x:c>
+      <x:c r="F21" t="n">
+        <x:v>25.36</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="22">
+      <x:c r="B22" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="C22" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="D22" t="n">
+        <x:v>46</x:v>
+      </x:c>
+      <x:c r="E22" t="n">
+        <x:v>Varios</x:v>
+      </x:c>
+      <x:c r="F22" t="n">
+        <x:v>895.16</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="23">
+      <x:c r="B23" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="C23" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="D23" t="n">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="E23" t="n">
+        <x:v>21.5</x:v>
+      </x:c>
+      <x:c r="F23" t="n">
+        <x:v>258</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="24">
+      <x:c r="B24" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="C24" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="D24" t="n">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="E24" t="n">
+        <x:v>17.56</x:v>
+      </x:c>
+      <x:c r="F24" t="n">
+        <x:v>35.12</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="25">
+      <x:c r="B25" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="C25" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="D25" t="n">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="E25" t="n">
+        <x:v>15.69</x:v>
+      </x:c>
+      <x:c r="F25" t="n">
+        <x:v>47.07</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="26">
+      <x:c r="B26" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="C26" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="D26" t="n">
+        <x:v>130</x:v>
+      </x:c>
+      <x:c r="E26" t="n">
+        <x:v>Varios</x:v>
+      </x:c>
+      <x:c r="F26" t="n">
+        <x:v>135.2</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="27">
+      <x:c r="B27" t="s">
+        <x:v>33</x:v>
+      </x:c>
+      <x:c r="C27" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="D27" t="n">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="E27" t="n">
+        <x:v>209.99</x:v>
+      </x:c>
+      <x:c r="F27" t="n">
+        <x:v>4199.8</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="28">
+      <x:c r="B28" t="s">
+        <x:v>34</x:v>
+      </x:c>
+      <x:c r="C28" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="D28" t="n">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="E28" t="n">
+        <x:v>Varios</x:v>
+      </x:c>
+      <x:c r="F28" t="n">
+        <x:v>157.68</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="29">
+      <x:c r="B29" t="s">
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="C29" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="D29" t="n">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="E29" t="n">
+        <x:v>46</x:v>
+      </x:c>
+      <x:c r="F29" t="n">
+        <x:v>230</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="30">
+      <x:c r="B30" t="s">
+        <x:v>36</x:v>
+      </x:c>
+      <x:c r="C30" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="D30" t="n">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="E30" t="n">
+        <x:v>0.36</x:v>
+      </x:c>
+      <x:c r="F30" t="n">
+        <x:v>0.72</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="31">
+      <x:c r="B31" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="C31" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="D31" t="n">
+        <x:v>150</x:v>
+      </x:c>
+      <x:c r="E31" t="n">
+        <x:v>6.04</x:v>
+      </x:c>
+      <x:c r="F31" t="n">
+        <x:v>906</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="32">
+      <x:c r="B32" t="s">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="C32" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="D32" t="n">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="E32" t="n">
+        <x:v>3.86</x:v>
+      </x:c>
+      <x:c r="F32" t="n">
+        <x:v>19.3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="33">
+      <x:c r="B33" t="s">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="C33" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="D33" t="n">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="E33" t="n">
+        <x:v>2.33</x:v>
+      </x:c>
+      <x:c r="F33" t="n">
+        <x:v>27.96</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="34">
+      <x:c r="B34" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="C34" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="D34" t="n">
         <x:v>17</x:v>
       </x:c>
+      <x:c r="E34" t="n">
+        <x:v>122.5</x:v>
+      </x:c>
+      <x:c r="F34" t="n">
+        <x:v>2082.5</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="35">
+      <x:c r="B35" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="D35" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="F35" t="s">
+        <x:v>43</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="36">
+      <x:c r="B36" t="s">
+        <x:v>44</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="37">
+      <x:c r="B37" t="s">
+        <x:v>45</x:v>
+      </x:c>
+      <x:c r="C37" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="D37" t="n">
+        <x:v>43200</x:v>
+      </x:c>
+      <x:c r="E37" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="F37" t="n">
+        <x:v>43200</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="38">
+      <x:c r="B38" t="s">
+        <x:v>46</x:v>
+      </x:c>
+      <x:c r="C38" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="D38" t="n">
+        <x:v>156008</x:v>
+      </x:c>
+      <x:c r="E38" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="F38" t="n">
+        <x:v>156008</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="39">
+      <x:c r="B39" t="s">
+        <x:v>47</x:v>
+      </x:c>
+      <x:c r="C39" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="D39" t="n">
+        <x:v>573600</x:v>
+      </x:c>
+      <x:c r="E39" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="F39" t="n">
+        <x:v>573600</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="40">
+      <x:c r="B40" t="s">
+        <x:v>48</x:v>
+      </x:c>
+      <x:c r="D40" t="s">
+        <x:v>49</x:v>
+      </x:c>
+      <x:c r="F40" t="s">
+        <x:v>49</x:v>
+      </x:c>
     </x:row>
   </x:sheetData>
-  <x:mergeCells count="10">
-    <x:mergeCell ref="B2:D2"/>
-    <x:mergeCell ref="B3:D3"/>
-    <x:mergeCell ref="B4:D4"/>
-    <x:mergeCell ref="B5:D5"/>
-    <x:mergeCell ref="B8:D8"/>
+  <x:mergeCells count="12">
+    <x:mergeCell ref="B2:F2"/>
+    <x:mergeCell ref="B3:F3"/>
+    <x:mergeCell ref="B4:F4"/>
+    <x:mergeCell ref="B5:F5"/>
+    <x:mergeCell ref="B8:F8"/>
     <x:mergeCell ref="B9:B10"/>
     <x:mergeCell ref="C9:C10"/>
+    <x:mergeCell ref="F9:F10"/>
+    <x:mergeCell ref="B6:F6"/>
+    <x:mergeCell ref="B7:F7"/>
     <x:mergeCell ref="D9:D10"/>
-    <x:mergeCell ref="B6:D6"/>
-    <x:mergeCell ref="B7:D7"/>
+    <x:mergeCell ref="E9:E10"/>
   </x:mergeCells>
   <x:pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <x:pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/AppV2/App_Data/reportes/consultor3/ReporteGeneralGastoFuncionamiento.xlsx
+++ b/AppV2/App_Data/reportes/consultor3/ReporteGeneralGastoFuncionamiento.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <x:si>
     <x:t>ORGANISMOS DIRECCION EJECUTIVA</x:t>
   </x:si>
@@ -47,6 +47,9 @@
     <x:t>P/U</x:t>
   </x:si>
   <x:si>
+    <x:t>CODIGO</x:t>
+  </x:si>
+  <x:si>
     <x:t>Presup 7</x:t>
   </x:si>
   <x:si>
@@ -56,109 +59,205 @@
     <x:t>1.- Materiales y suministros</x:t>
   </x:si>
   <x:si>
-    <x:t>0306090202 - MULTIMETRO DIGITAL DE 0.001 NF A 50 MF 100 KHZ 1 SEG. A 99 MIN 1000 REGISTROS</x:t>
+    <x:t>0299056300</x:t>
+  </x:si>
+  <x:si>
+    <x:t>EMPAQ LATTYFLON ESTILO 1785   DE  1/2"</x:t>
+  </x:si>
+  <x:si>
+    <x:t>400145</x:t>
+  </x:si>
+  <x:si>
+    <x:t>0306090202</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MULTIMETRO DIGITAL DE 0.001 NF A 50 MF 100 KHZ 1 SEG. A 99 MIN 1000 REGISTROS</x:t>
   </x:si>
   <x:si>
     <x:t>400716</x:t>
   </x:si>
   <x:si>
-    <x:t>0566060045 - FILLER DE 0.038 A 0.508  12 HOJAS X 12</x:t>
-  </x:si>
-  <x:si>
-    <x:t>400145</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1720160408 - PEGAMENTO SOLDIMIX EN CHISQUETE 1O MINUTOS</x:t>
+    <x:t>0503280481</x:t>
+  </x:si>
+  <x:si>
+    <x:t>HOJA DE SIERRA DE  2"     X 21" X  7 DIENTES   </x:t>
+  </x:si>
+  <x:si>
+    <x:t>0566060045</x:t>
+  </x:si>
+  <x:si>
+    <x:t>FILLER DE 0.038 A 0.508  12 HOJAS X 12</x:t>
+  </x:si>
+  <x:si>
+    <x:t>0566060068</x:t>
+  </x:si>
+  <x:si>
+    <x:t>FILLER DE 0.050 A 1.000  20 HOJAS X 12   </x:t>
+  </x:si>
+  <x:si>
+    <x:t>1720160408</x:t>
+  </x:si>
+  <x:si>
+    <x:t>PEGAMENTO SOLDIMIX EN CHISQUETE 1O MINUTOS</x:t>
   </x:si>
   <x:si>
     <x:t>400717</x:t>
   </x:si>
   <x:si>
-    <x:t>2502100700 - BANDEJA PORTA PAPELES ACRILICO DE DOS PISOS</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2503020600 - BASE DE PLASTICO P/CINTA SCOTCH</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2503167100 - PORTA CLIPS IMANTADO</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2504030252 - CUADERNO EMPASTADO CUADRICULADO 200 HOJAS D/56 GR. A-5</x:t>
+    <x:t>2502100700</x:t>
+  </x:si>
+  <x:si>
+    <x:t>BANDEJA PORTA PAPELES ACRILICO DE DOS PISOS</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2503020600</x:t>
+  </x:si>
+  <x:si>
+    <x:t>BASE DE PLASTICO P/CINTA SCOTCH</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2503167100</x:t>
+  </x:si>
+  <x:si>
+    <x:t>PORTA CLIPS IMANTADO</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2504030252</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CUADERNO EMPASTADO CUADRICULADO 200 HOJAS D/56 GR. A-5</x:t>
   </x:si>
   <x:si>
     <x:t>Varios</x:t>
   </x:si>
   <x:si>
-    <x:t>2505010153 - ARCHIVADOR DE PALANCA T/OFICIO</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2505010176 - ARCHIVADOR DE PALANCA T/OFICIO PLASTIFICADO</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2506020100 - VINIFAN TAMANO OFICIO</x:t>
+    <x:t>2505010153</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ARCHIVADOR DE PALANCA T/OFICIO</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2505010176</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ARCHIVADOR DE PALANCA T/OFICIO PLASTIFICADO</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2506020100</x:t>
+  </x:si>
+  <x:si>
+    <x:t>VINIFAN TAMANO OFICIO</x:t>
   </x:si>
   <x:si>
     <x:t>400715</x:t>
   </x:si>
   <x:si>
-    <x:t>2507080098 - PAPEL BOND BLANCO 80 GR A-4 P/FOTOCOPIADORA</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2509121207 - KIT DE LIMPIEZA P/MONITORES LCD</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2509190171 - SELLO AUTOMATICO CON IMPRESION TRODAT C/ALMOHADILLA</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2700060204 - MEMORIA USB  8 GB</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2700070208 - CD ROOM 700 MB CON ESTUCHE</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2710014640 - DISCO DURO SEGATE 1 TB 7200 RPM SATA 3</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2710015009 - MOUSE TRES BOTONES CONEXION USB/PS2</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2710019508 - ADAPTADOR DE DISCO IDE SATA A USB EXTERNO</x:t>
-  </x:si>
-  <x:si>
-    <x:t>3015500959 - CABLE TELEFONICO DE 2 X 18</x:t>
-  </x:si>
-  <x:si>
-    <x:t>3112286315 - CAJA MODULAR JACKS DE 02 PINES</x:t>
-  </x:si>
-  <x:si>
-    <x:t>3302280149 - LAMPARA FLUORESCENTE RECTO 36 W T8,MOD.TLD</x:t>
-  </x:si>
-  <x:si>
-    <x:t>3304280088 - PILA DE 1.5 V  TAMANO AA</x:t>
-  </x:si>
-  <x:si>
-    <x:t>3518133628 - PATCH CORD FIBRA MULTIMODO 50/125 MTRJ-SC</x:t>
+    <x:t>2507080098</x:t>
+  </x:si>
+  <x:si>
+    <x:t>PAPEL BOND BLANCO 80 GR A-4 P/FOTOCOPIADORA</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2509121207</x:t>
+  </x:si>
+  <x:si>
+    <x:t>KIT DE LIMPIEZA P/MONITORES LCD</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2509190171</x:t>
+  </x:si>
+  <x:si>
+    <x:t>SELLO AUTOMATICO CON IMPRESION TRODAT C/ALMOHADILLA</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2700060204</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MEMORIA USB  8 GB</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2700070208</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CD ROOM 700 MB CON ESTUCHE</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2710014640</x:t>
+  </x:si>
+  <x:si>
+    <x:t>DISCO DURO SEGATE 1 TB 7200 RPM SATA 3</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2710015009</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MOUSE TRES BOTONES CONEXION USB/PS2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2710019508</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ADAPTADOR DE DISCO IDE SATA A USB EXTERNO</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3015500959</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CABLE TELEFONICO DE 2 X 18</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3112286315</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CAJA MODULAR JACKS DE 02 PINES</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3302280149</x:t>
+  </x:si>
+  <x:si>
+    <x:t>LAMPARA FLUORESCENTE RECTO 36 W T8,MOD.TLD</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3304280088</x:t>
+  </x:si>
+  <x:si>
+    <x:t>PILA DE 1.5 V  TAMANO AA</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3518133628</x:t>
+  </x:si>
+  <x:si>
+    <x:t>PATCH CORD FIBRA MULTIMODO 50/125 MTRJ-SC</x:t>
   </x:si>
   <x:si>
     <x:t>Total Materiales</x:t>
   </x:si>
   <x:si>
-    <x:t>496.00</x:t>
-  </x:si>
-  <x:si>
-    <x:t>15648.30</x:t>
+    <x:t>505.00</x:t>
+  </x:si>
+  <x:si>
+    <x:t>18932.40</x:t>
   </x:si>
   <x:si>
     <x:t>2.- Servicios</x:t>
   </x:si>
   <x:si>
-    <x:t>SR50120001 - TELEFONIA FIJA</x:t>
-  </x:si>
-  <x:si>
-    <x:t>SR50140001 - TELEFONIA CELULAR </x:t>
-  </x:si>
-  <x:si>
-    <x:t>SR50150001 - INTERNET</x:t>
+    <x:t>SR50120001</x:t>
+  </x:si>
+  <x:si>
+    <x:t>TELEFONIA FIJA</x:t>
+  </x:si>
+  <x:si>
+    <x:t>SR50140001</x:t>
+  </x:si>
+  <x:si>
+    <x:t>TELEFONIA CELULAR </x:t>
+  </x:si>
+  <x:si>
+    <x:t>SR50150001</x:t>
+  </x:si>
+  <x:si>
+    <x:t>INTERNET</x:t>
   </x:si>
   <x:si>
     <x:t>Total Servicios</x:t>
@@ -260,12 +359,6 @@
   </cellStyleXfs>
   <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -274,6 +367,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -582,594 +681,737 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x14ac">
-  <x:dimension ref="B2:F10"/>
+  <x:dimension ref="B2:G10"/>
   <x:sheetViews>
     <x:sheetView tabSelected="1" workbookViewId="0">
-      <x:selection activeCell="B9" sqref="B9:B10"/>
+      <x:selection activeCell="B11" sqref="B11"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <x:cols>
-    <x:col min="2" max="2" width="62.85546875" customWidth="1"/>
-    <x:col min="3" max="3" width="19.28515625" customWidth="1"/>
-    <x:col min="4" max="4" width="16.7109375" customWidth="1"/>
-    <x:col min="5" max="5" width="11.42578125" customWidth="1"/>
+    <x:col min="3" max="3" width="62.85546875" customWidth="1"/>
+    <x:col min="4" max="4" width="19.28515625" customWidth="1"/>
+    <x:col min="5" max="5" width="16.7109375" customWidth="1"/>
+    <x:col min="6" max="6" width="11.42578125" customWidth="1"/>
   </x:cols>
   <x:sheetData>
-    <x:row r="2" spans="2:6" x14ac:dyDescent="0.25">
-      <x:c r="B2" s="3" t="s">
+    <x:row r="2" spans="2:7" x14ac:dyDescent="0.25">
+      <x:c r="C2" s="1" t="s">
         <x:v>0</x:v>
       </x:c>
-      <x:c r="C2" s="3"/>
-      <x:c r="D2" s="3"/>
-      <x:c r="E2" s="3"/>
-      <x:c r="F2" s="3"/>
-    </x:row>
-    <x:row r="3" spans="2:6" x14ac:dyDescent="0.25">
-      <x:c r="B3" s="3" t="s">
+      <x:c r="D2" s="1"/>
+      <x:c r="E2" s="1"/>
+      <x:c r="F2" s="1"/>
+      <x:c r="G2" s="1"/>
+    </x:row>
+    <x:row r="3" spans="2:7" x14ac:dyDescent="0.25">
+      <x:c r="C3" s="1" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="B3 " t="s">
+      <x:c r="C3 " t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="D3" s="1"/>
+      <x:c r="E3" s="1"/>
+      <x:c r="F3" s="1"/>
+      <x:c r="G3" s="1"/>
+    </x:row>
+    <x:row r="4" spans="2:7" x14ac:dyDescent="0.25">
+      <x:c r="C4" s="1" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="D4" s="1"/>
+      <x:c r="E4" s="1"/>
+      <x:c r="F4" s="1"/>
+      <x:c r="G4" s="1"/>
+    </x:row>
+    <x:row r="5" spans="2:7" x14ac:dyDescent="0.25">
+      <x:c r="C5" s="2"/>
+      <x:c r="D5" s="2"/>
+      <x:c r="E5" s="2"/>
+      <x:c r="F5" s="2"/>
+      <x:c r="G5" s="2"/>
+    </x:row>
+    <x:row r="6" spans="2:7" x14ac:dyDescent="0.25">
+      <x:c r="C6" s="5" t="s">
         <x:v>11</x:v>
       </x:c>
-      <x:c r="C3" s="3"/>
-      <x:c r="D3" s="3"/>
-      <x:c r="E3" s="3"/>
-      <x:c r="F3" s="3"/>
-    </x:row>
-    <x:row r="4" spans="2:6" x14ac:dyDescent="0.25">
-      <x:c r="B4" s="3" t="s">
-        <x:v>6</x:v>
-      </x:c>
-      <x:c r="C4" s="3"/>
-      <x:c r="D4" s="3"/>
-      <x:c r="E4" s="3"/>
-      <x:c r="F4" s="3"/>
-    </x:row>
-    <x:row r="5" spans="2:6" x14ac:dyDescent="0.25">
-      <x:c r="B5" s="4"/>
-      <x:c r="C5" s="4"/>
-      <x:c r="D5" s="4"/>
-      <x:c r="E5" s="4"/>
-      <x:c r="F5" s="4"/>
-    </x:row>
-    <x:row r="6" spans="2:6" x14ac:dyDescent="0.25">
-      <x:c r="B6" s="2" t="s">
+      <x:c r="D6" s="5"/>
+      <x:c r="E6" s="5"/>
+      <x:c r="F6" s="5"/>
+      <x:c r="G6" s="5"/>
+    </x:row>
+    <x:row r="7" spans="2:7" x14ac:dyDescent="0.25">
+      <x:c r="C7" s="5" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="D7" s="5"/>
+      <x:c r="E7" s="5"/>
+      <x:c r="F7" s="5"/>
+      <x:c r="G7" s="5"/>
+    </x:row>
+    <x:row r="8" spans="2:7" x14ac:dyDescent="0.25">
+      <x:c r="C8" s="3"/>
+      <x:c r="D8" s="3"/>
+      <x:c r="E8" s="3"/>
+      <x:c r="F8" s="3"/>
+      <x:c r="G8" s="3"/>
+    </x:row>
+    <x:row r="9" spans="2:7" x14ac:dyDescent="0.25">
+      <x:c r="B9" s="4" t="s">
         <x:v>10</x:v>
       </x:c>
-      <x:c r="C6" s="2"/>
-      <x:c r="D6" s="2"/>
-      <x:c r="E6" s="2"/>
-      <x:c r="F6" s="2"/>
-    </x:row>
-    <x:row r="7" spans="2:6" x14ac:dyDescent="0.25">
-      <x:c r="B7" s="2" t="s">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="C7" s="2"/>
-      <x:c r="D7" s="2"/>
-      <x:c r="E7" s="2"/>
-      <x:c r="F7" s="2"/>
-    </x:row>
-    <x:row r="8" spans="2:6" x14ac:dyDescent="0.25">
-      <x:c r="B8" s="5"/>
-      <x:c r="C8" s="5"/>
-      <x:c r="D8" s="5"/>
-      <x:c r="E8" s="5"/>
-      <x:c r="F8" s="5"/>
-    </x:row>
-    <x:row r="9" spans="2:6" x14ac:dyDescent="0.25">
-      <x:c r="B9" s="1" t="s">
+      <x:c r="C9" s="4" t="s">
         <x:v>3</x:v>
       </x:c>
-      <x:c r="C9" s="1" t="s">
+      <x:c r="D9" s="4" t="s">
         <x:v>8</x:v>
       </x:c>
-      <x:c r="D9" s="1" t="s">
+      <x:c r="E9" s="4" t="s">
         <x:v>4</x:v>
       </x:c>
-      <x:c r="E9" s="6" t="s">
+      <x:c r="F9" s="6" t="s">
         <x:v>9</x:v>
       </x:c>
-      <x:c r="F9" s="1" t="s">
+      <x:c r="G9" s="4" t="s">
         <x:v>5</x:v>
       </x:c>
     </x:row>
-    <x:row r="10" spans="2:6" x14ac:dyDescent="0.25">
-      <x:c r="B10" s="1"/>
-      <x:c r="C10" s="1"/>
-      <x:c r="D10" s="1"/>
-      <x:c r="E10" s="7"/>
-      <x:c r="F10" s="1"/>
+    <x:row r="10" spans="2:7" x14ac:dyDescent="0.25">
+      <x:c r="B10" s="4"/>
+      <x:c r="C10" s="4"/>
+      <x:c r="D10" s="4"/>
+      <x:c r="E10" s="4"/>
+      <x:c r="F10" s="7"/>
+      <x:c r="G10" s="4"/>
     </x:row>
     <x:row r="11">
-      <x:c r="B11" t="s">
-        <x:v>12</x:v>
+      <x:c r="C11" t="s">
+        <x:v>13</x:v>
       </x:c>
     </x:row>
     <x:row r="12">
       <x:c r="B12" t="s">
-        <x:v>13</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="C12" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="D12" t="n">
-        <x:v>4</x:v>
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="D12" t="s">
+        <x:v>16</x:v>
       </x:c>
       <x:c r="E12" t="n">
-        <x:v>1534.93</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="F12" t="n">
-        <x:v>6139.72</x:v>
+        <x:v>433.44</x:v>
+      </x:c>
+      <x:c r="G12" t="n">
+        <x:v>433.44</x:v>
       </x:c>
     </x:row>
     <x:row r="13">
       <x:c r="B13" t="s">
-        <x:v>15</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="C13" t="s">
-        <x:v>16</x:v>
-      </x:c>
-      <x:c r="D13" t="n">
-        <x:v>1</x:v>
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="D13" t="s">
+        <x:v>19</x:v>
       </x:c>
       <x:c r="E13" t="n">
-        <x:v>204.01</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="F13" t="n">
-        <x:v>204.01</x:v>
+        <x:v>1534.93</x:v>
+      </x:c>
+      <x:c r="G13" t="n">
+        <x:v>6139.72</x:v>
       </x:c>
     </x:row>
     <x:row r="14">
       <x:c r="B14" t="s">
-        <x:v>17</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="C14" t="s">
-        <x:v>18</x:v>
-      </x:c>
-      <x:c r="D14" t="n">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="D14" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="E14" t="n">
         <x:v>12</x:v>
       </x:c>
-      <x:c r="E14" t="n">
-        <x:v>8.19</x:v>
-      </x:c>
       <x:c r="F14" t="n">
-        <x:v>98.28</x:v>
+        <x:v>231.92</x:v>
+      </x:c>
+      <x:c r="G14" t="n">
+        <x:v>2783.04</x:v>
       </x:c>
     </x:row>
     <x:row r="15">
       <x:c r="B15" t="s">
-        <x:v>19</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="C15" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="D15" t="n">
-        <x:v>2</x:v>
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="D15" t="s">
+        <x:v>16</x:v>
       </x:c>
       <x:c r="E15" t="n">
-        <x:v>15.09</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="F15" t="n">
-        <x:v>30.18</x:v>
+        <x:v>204.01</x:v>
+      </x:c>
+      <x:c r="G15" t="n">
+        <x:v>204.01</x:v>
       </x:c>
     </x:row>
     <x:row r="16">
       <x:c r="B16" t="s">
-        <x:v>20</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="C16" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="D16" t="n">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="D16" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="E16" t="n">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="E16" t="n">
-        <x:v>6.44</x:v>
-      </x:c>
       <x:c r="F16" t="n">
-        <x:v>6.44</x:v>
+        <x:v>81.42</x:v>
+      </x:c>
+      <x:c r="G16" t="n">
+        <x:v>81.42</x:v>
       </x:c>
     </x:row>
     <x:row r="17">
       <x:c r="B17" t="s">
-        <x:v>21</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="C17" t="s">
-        <x:v>18</x:v>
-      </x:c>
-      <x:c r="D17" t="n">
-        <x:v>2</x:v>
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="D17" t="s">
+        <x:v>28</x:v>
       </x:c>
       <x:c r="E17" t="n">
-        <x:v>2</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="F17" t="n">
-        <x:v>4</x:v>
+        <x:v>8.19</x:v>
+      </x:c>
+      <x:c r="G17" t="n">
+        <x:v>98.28</x:v>
       </x:c>
     </x:row>
     <x:row r="18">
       <x:c r="B18" t="s">
-        <x:v>22</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="C18" t="s">
-        <x:v>23</x:v>
-      </x:c>
-      <x:c r="D18" t="n">
-        <x:v>4</x:v>
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="D18" t="s">
+        <x:v>19</x:v>
       </x:c>
       <x:c r="E18" t="n">
-        <x:v>Varios</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="F18" t="n">
-        <x:v>13.08</x:v>
+        <x:v>15.09</x:v>
+      </x:c>
+      <x:c r="G18" t="n">
+        <x:v>30.18</x:v>
       </x:c>
     </x:row>
     <x:row r="19">
       <x:c r="B19" t="s">
-        <x:v>24</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="C19" t="s">
-        <x:v>23</x:v>
-      </x:c>
-      <x:c r="D19" t="n">
-        <x:v>44</x:v>
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="D19" t="s">
+        <x:v>19</x:v>
       </x:c>
       <x:c r="E19" t="n">
-        <x:v>Varios</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="F19" t="n">
-        <x:v>116.16</x:v>
+        <x:v>6.44</x:v>
+      </x:c>
+      <x:c r="G19" t="n">
+        <x:v>6.44</x:v>
       </x:c>
     </x:row>
     <x:row r="20">
       <x:c r="B20" t="s">
-        <x:v>25</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="C20" t="s">
-        <x:v>16</x:v>
-      </x:c>
-      <x:c r="D20" t="n">
-        <x:v>6</x:v>
+        <x:v>34</x:v>
+      </x:c>
+      <x:c r="D20" t="s">
+        <x:v>28</x:v>
       </x:c>
       <x:c r="E20" t="n">
-        <x:v>2.76</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="F20" t="n">
-        <x:v>16.56</x:v>
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="G20" t="n">
+        <x:v>4</x:v>
       </x:c>
     </x:row>
     <x:row r="21">
       <x:c r="B21" t="s">
-        <x:v>26</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="C21" t="s">
-        <x:v>27</x:v>
-      </x:c>
-      <x:c r="D21" t="n">
+        <x:v>36</x:v>
+      </x:c>
+      <x:c r="D21" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="E21" t="n">
         <x:v>4</x:v>
       </x:c>
-      <x:c r="E21" t="n">
-        <x:v>6.34</x:v>
-      </x:c>
       <x:c r="F21" t="n">
-        <x:v>25.36</x:v>
+        <x:v>Varios</x:v>
+      </x:c>
+      <x:c r="G21" t="n">
+        <x:v>13.08</x:v>
       </x:c>
     </x:row>
     <x:row r="22">
       <x:c r="B22" t="s">
-        <x:v>28</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="C22" t="s">
-        <x:v>23</x:v>
-      </x:c>
-      <x:c r="D22" t="n">
-        <x:v>46</x:v>
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="D22" t="s">
+        <x:v>37</x:v>
       </x:c>
       <x:c r="E22" t="n">
+        <x:v>44</x:v>
+      </x:c>
+      <x:c r="F22" t="n">
         <x:v>Varios</x:v>
       </x:c>
-      <x:c r="F22" t="n">
-        <x:v>895.16</x:v>
+      <x:c r="G22" t="n">
+        <x:v>116.16</x:v>
       </x:c>
     </x:row>
     <x:row r="23">
       <x:c r="B23" t="s">
-        <x:v>29</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="C23" t="s">
-        <x:v>18</x:v>
-      </x:c>
-      <x:c r="D23" t="n">
-        <x:v>12</x:v>
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="D23" t="s">
+        <x:v>16</x:v>
       </x:c>
       <x:c r="E23" t="n">
-        <x:v>21.5</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="F23" t="n">
-        <x:v>258</x:v>
+        <x:v>2.76</x:v>
+      </x:c>
+      <x:c r="G23" t="n">
+        <x:v>2.76</x:v>
       </x:c>
     </x:row>
     <x:row r="24">
       <x:c r="B24" t="s">
-        <x:v>30</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="C24" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="D24" t="n">
-        <x:v>2</x:v>
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="D24" t="s">
+        <x:v>44</x:v>
       </x:c>
       <x:c r="E24" t="n">
-        <x:v>17.56</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="F24" t="n">
-        <x:v>35.12</x:v>
+        <x:v>6.34</x:v>
+      </x:c>
+      <x:c r="G24" t="n">
+        <x:v>25.36</x:v>
       </x:c>
     </x:row>
     <x:row r="25">
       <x:c r="B25" t="s">
-        <x:v>31</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="C25" t="s">
-        <x:v>27</x:v>
-      </x:c>
-      <x:c r="D25" t="n">
-        <x:v>3</x:v>
+        <x:v>46</x:v>
+      </x:c>
+      <x:c r="D25" t="s">
+        <x:v>37</x:v>
       </x:c>
       <x:c r="E25" t="n">
-        <x:v>15.69</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="F25" t="n">
-        <x:v>47.07</x:v>
+        <x:v>Varios</x:v>
+      </x:c>
+      <x:c r="G25" t="n">
+        <x:v>895.16</x:v>
       </x:c>
     </x:row>
     <x:row r="26">
       <x:c r="B26" t="s">
-        <x:v>32</x:v>
+        <x:v>47</x:v>
       </x:c>
       <x:c r="C26" t="s">
-        <x:v>23</x:v>
-      </x:c>
-      <x:c r="D26" t="n">
-        <x:v>130</x:v>
+        <x:v>48</x:v>
+      </x:c>
+      <x:c r="D26" t="s">
+        <x:v>28</x:v>
       </x:c>
       <x:c r="E26" t="n">
-        <x:v>Varios</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="F26" t="n">
-        <x:v>135.2</x:v>
+        <x:v>21.5</x:v>
+      </x:c>
+      <x:c r="G26" t="n">
+        <x:v>258</x:v>
       </x:c>
     </x:row>
     <x:row r="27">
       <x:c r="B27" t="s">
-        <x:v>33</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="C27" t="s">
-        <x:v>18</x:v>
-      </x:c>
-      <x:c r="D27" t="n">
-        <x:v>20</x:v>
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="D27" t="s">
+        <x:v>19</x:v>
       </x:c>
       <x:c r="E27" t="n">
-        <x:v>209.99</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="F27" t="n">
-        <x:v>4199.8</x:v>
+        <x:v>17.56</x:v>
+      </x:c>
+      <x:c r="G27" t="n">
+        <x:v>35.12</x:v>
       </x:c>
     </x:row>
     <x:row r="28">
       <x:c r="B28" t="s">
-        <x:v>34</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="C28" t="s">
-        <x:v>23</x:v>
-      </x:c>
-      <x:c r="D28" t="n">
-        <x:v>12</x:v>
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="D28" t="s">
+        <x:v>44</x:v>
       </x:c>
       <x:c r="E28" t="n">
-        <x:v>Varios</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="F28" t="n">
-        <x:v>157.68</x:v>
+        <x:v>15.69</x:v>
+      </x:c>
+      <x:c r="G28" t="n">
+        <x:v>47.07</x:v>
       </x:c>
     </x:row>
     <x:row r="29">
       <x:c r="B29" t="s">
-        <x:v>35</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="C29" t="s">
-        <x:v>18</x:v>
-      </x:c>
-      <x:c r="D29" t="n">
-        <x:v>5</x:v>
+        <x:v>54</x:v>
+      </x:c>
+      <x:c r="D29" t="s">
+        <x:v>37</x:v>
       </x:c>
       <x:c r="E29" t="n">
-        <x:v>46</x:v>
+        <x:v>130</x:v>
       </x:c>
       <x:c r="F29" t="n">
-        <x:v>230</x:v>
+        <x:v>Varios</x:v>
+      </x:c>
+      <x:c r="G29" t="n">
+        <x:v>135.2</x:v>
       </x:c>
     </x:row>
     <x:row r="30">
       <x:c r="B30" t="s">
-        <x:v>36</x:v>
+        <x:v>55</x:v>
       </x:c>
       <x:c r="C30" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="D30" t="n">
-        <x:v>2</x:v>
+        <x:v>56</x:v>
+      </x:c>
+      <x:c r="D30" t="s">
+        <x:v>28</x:v>
       </x:c>
       <x:c r="E30" t="n">
-        <x:v>0.36</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="F30" t="n">
-        <x:v>0.72</x:v>
+        <x:v>209.99</x:v>
+      </x:c>
+      <x:c r="G30" t="n">
+        <x:v>4199.8</x:v>
       </x:c>
     </x:row>
     <x:row r="31">
       <x:c r="B31" t="s">
+        <x:v>57</x:v>
+      </x:c>
+      <x:c r="C31" t="s">
+        <x:v>58</x:v>
+      </x:c>
+      <x:c r="D31" t="s">
         <x:v>37</x:v>
       </x:c>
-      <x:c r="C31" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="D31" t="n">
-        <x:v>150</x:v>
-      </x:c>
       <x:c r="E31" t="n">
-        <x:v>6.04</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="F31" t="n">
-        <x:v>906</x:v>
+        <x:v>Varios</x:v>
+      </x:c>
+      <x:c r="G31" t="n">
+        <x:v>157.68</x:v>
       </x:c>
     </x:row>
     <x:row r="32">
       <x:c r="B32" t="s">
-        <x:v>38</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="C32" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="D32" t="n">
+        <x:v>60</x:v>
+      </x:c>
+      <x:c r="D32" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="E32" t="n">
         <x:v>5</x:v>
       </x:c>
-      <x:c r="E32" t="n">
-        <x:v>3.86</x:v>
-      </x:c>
       <x:c r="F32" t="n">
-        <x:v>19.3</x:v>
+        <x:v>46</x:v>
+      </x:c>
+      <x:c r="G32" t="n">
+        <x:v>230</x:v>
       </x:c>
     </x:row>
     <x:row r="33">
       <x:c r="B33" t="s">
-        <x:v>39</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="C33" t="s">
-        <x:v>18</x:v>
-      </x:c>
-      <x:c r="D33" t="n">
-        <x:v>12</x:v>
+        <x:v>62</x:v>
+      </x:c>
+      <x:c r="D33" t="s">
+        <x:v>19</x:v>
       </x:c>
       <x:c r="E33" t="n">
-        <x:v>2.33</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="F33" t="n">
-        <x:v>27.96</x:v>
+        <x:v>0.36</x:v>
+      </x:c>
+      <x:c r="G33" t="n">
+        <x:v>0.72</x:v>
       </x:c>
     </x:row>
     <x:row r="34">
       <x:c r="B34" t="s">
-        <x:v>40</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="C34" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="D34" t="n">
-        <x:v>17</x:v>
+        <x:v>64</x:v>
+      </x:c>
+      <x:c r="D34" t="s">
+        <x:v>19</x:v>
       </x:c>
       <x:c r="E34" t="n">
-        <x:v>122.5</x:v>
+        <x:v>150</x:v>
       </x:c>
       <x:c r="F34" t="n">
-        <x:v>2082.5</x:v>
+        <x:v>6.04</x:v>
+      </x:c>
+      <x:c r="G34" t="n">
+        <x:v>906</x:v>
       </x:c>
     </x:row>
     <x:row r="35">
       <x:c r="B35" t="s">
-        <x:v>41</x:v>
+        <x:v>65</x:v>
+      </x:c>
+      <x:c r="C35" t="s">
+        <x:v>66</x:v>
       </x:c>
       <x:c r="D35" t="s">
-        <x:v>42</x:v>
-      </x:c>
-      <x:c r="F35" t="s">
-        <x:v>43</x:v>
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="E35" t="n">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="F35" t="n">
+        <x:v>3.86</x:v>
+      </x:c>
+      <x:c r="G35" t="n">
+        <x:v>19.3</x:v>
       </x:c>
     </x:row>
     <x:row r="36">
       <x:c r="B36" t="s">
-        <x:v>44</x:v>
+        <x:v>67</x:v>
+      </x:c>
+      <x:c r="C36" t="s">
+        <x:v>68</x:v>
+      </x:c>
+      <x:c r="D36" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="E36" t="n">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="F36" t="n">
+        <x:v>2.33</x:v>
+      </x:c>
+      <x:c r="G36" t="n">
+        <x:v>27.96</x:v>
       </x:c>
     </x:row>
     <x:row r="37">
       <x:c r="B37" t="s">
-        <x:v>45</x:v>
+        <x:v>69</x:v>
       </x:c>
       <x:c r="C37" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="D37" t="n">
-        <x:v>43200</x:v>
+        <x:v>70</x:v>
+      </x:c>
+      <x:c r="D37" t="s">
+        <x:v>19</x:v>
       </x:c>
       <x:c r="E37" t="n">
-        <x:v>1</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="F37" t="n">
-        <x:v>43200</x:v>
+        <x:v>122.5</x:v>
+      </x:c>
+      <x:c r="G37" t="n">
+        <x:v>2082.5</x:v>
       </x:c>
     </x:row>
     <x:row r="38">
-      <x:c r="B38" t="s">
-        <x:v>46</x:v>
-      </x:c>
       <x:c r="C38" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="D38" t="n">
-        <x:v>156008</x:v>
-      </x:c>
-      <x:c r="E38" t="n">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="F38" t="n">
-        <x:v>156008</x:v>
+        <x:v>71</x:v>
+      </x:c>
+      <x:c r="E38" t="s">
+        <x:v>72</x:v>
+      </x:c>
+      <x:c r="G38" t="s">
+        <x:v>73</x:v>
       </x:c>
     </x:row>
     <x:row r="39">
-      <x:c r="B39" t="s">
-        <x:v>47</x:v>
-      </x:c>
       <x:c r="C39" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="D39" t="n">
-        <x:v>573600</x:v>
-      </x:c>
-      <x:c r="E39" t="n">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="F39" t="n">
-        <x:v>573600</x:v>
+        <x:v>74</x:v>
       </x:c>
     </x:row>
     <x:row r="40">
       <x:c r="B40" t="s">
-        <x:v>48</x:v>
+        <x:v>75</x:v>
+      </x:c>
+      <x:c r="C40" t="s">
+        <x:v>76</x:v>
       </x:c>
       <x:c r="D40" t="s">
-        <x:v>49</x:v>
-      </x:c>
-      <x:c r="F40" t="s">
-        <x:v>49</x:v>
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="E40" t="n">
+        <x:v>43200</x:v>
+      </x:c>
+      <x:c r="F40" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="G40" t="n">
+        <x:v>43200</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="41">
+      <x:c r="B41" t="s">
+        <x:v>77</x:v>
+      </x:c>
+      <x:c r="C41" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="D41" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="E41" t="n">
+        <x:v>156008</x:v>
+      </x:c>
+      <x:c r="F41" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="G41" t="n">
+        <x:v>156008</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="42">
+      <x:c r="B42" t="s">
+        <x:v>79</x:v>
+      </x:c>
+      <x:c r="C42" t="s">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="D42" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="E42" t="n">
+        <x:v>573600</x:v>
+      </x:c>
+      <x:c r="F42" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="G42" t="n">
+        <x:v>573600</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="43">
+      <x:c r="C43" t="s">
+        <x:v>81</x:v>
+      </x:c>
+      <x:c r="E43" t="s">
+        <x:v>82</x:v>
+      </x:c>
+      <x:c r="G43" t="s">
+        <x:v>82</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:mergeCells count="12">
-    <x:mergeCell ref="B2:F2"/>
-    <x:mergeCell ref="B3:F3"/>
-    <x:mergeCell ref="B4:F4"/>
-    <x:mergeCell ref="B5:F5"/>
-    <x:mergeCell ref="B8:F8"/>
+  <x:mergeCells count="13">
     <x:mergeCell ref="B9:B10"/>
     <x:mergeCell ref="C9:C10"/>
+    <x:mergeCell ref="D9:D10"/>
+    <x:mergeCell ref="G9:G10"/>
+    <x:mergeCell ref="C6:G6"/>
+    <x:mergeCell ref="C7:G7"/>
+    <x:mergeCell ref="E9:E10"/>
     <x:mergeCell ref="F9:F10"/>
-    <x:mergeCell ref="B6:F6"/>
-    <x:mergeCell ref="B7:F7"/>
-    <x:mergeCell ref="D9:D10"/>
-    <x:mergeCell ref="E9:E10"/>
+    <x:mergeCell ref="C2:G2"/>
+    <x:mergeCell ref="C3:G3"/>
+    <x:mergeCell ref="C4:G4"/>
+    <x:mergeCell ref="C5:G5"/>
+    <x:mergeCell ref="C8:G8"/>
   </x:mergeCells>
   <x:pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <x:pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
